--- a/data/trans_dic/P36$nada-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36$nada-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,7</t>
+          <t>1,79; 3,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,93</t>
+          <t>1,54; 3,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,75</t>
+          <t>0,7; 2,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,86</t>
+          <t>0,63; 1,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,3</t>
+          <t>0,31; 1,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,25</t>
+          <t>0,2; 1,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,4</t>
+          <t>1,27; 2,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,07</t>
+          <t>0,96; 2,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,51</t>
+          <t>0,55; 1,52</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 2,74</t>
+          <t>1,42; 2,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,67</t>
+          <t>1,98; 3,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,08</t>
+          <t>1,65; 3,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 2,64</t>
+          <t>1,3; 2,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,78</t>
+          <t>2,08; 3,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,03</t>
+          <t>0,97; 2,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,49</t>
+          <t>1,55; 2,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 3,4</t>
+          <t>2,22; 3,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,4</t>
+          <t>1,46; 2,32</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,55</t>
+          <t>0,5; 2,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,51</t>
+          <t>1,03; 4,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,22</t>
+          <t>0,36; 2,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,46</t>
+          <t>0,66; 3,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,31</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,15</t>
+          <t>0,0; 0,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,4</t>
+          <t>0,84; 2,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,62</t>
+          <t>0,72; 2,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,21</t>
+          <t>0,26; 1,3</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,6</t>
+          <t>1,64; 2,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,03; 3,29</t>
+          <t>2,06; 3,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,43</t>
+          <t>1,45; 2,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,14</t>
+          <t>1,19; 2,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,27</t>
+          <t>1,33; 2,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,39</t>
+          <t>0,72; 1,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,17</t>
+          <t>1,52; 2,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 2,55</t>
+          <t>1,81; 2,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 1,76</t>
+          <t>1,16; 1,77</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no desayuna</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>26668</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>24706</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>11023</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15076</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9084</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>5783</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>41744</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>33790</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16806</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>18437; 38849</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>14948; 36865</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5248; 20365</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8220; 24517</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4075; 17528</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2036; 12064</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>29803; 55647</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>22274; 48222</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9635; 26463</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>33928</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>52560</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>47813</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>30590</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>50315</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>28501</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>64518</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>102875</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>76314</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>24055; 46138</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>38862; 69422</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>34319; 64446</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>20636; 42077</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>36495; 65413</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19329; 40428</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>50681; 82063</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>82507; 127730</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>59346; 94291</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>6946</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10775</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>5542</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>7884</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>948</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14829</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12745</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6490</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2758; 13239</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4963; 21207</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1978; 13246</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3138; 14834</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 6284</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4756</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8611; 25503</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6706; 22977</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2798; 14204</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>67542</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>88041</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>64378</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>53550</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>61369</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>35232</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>121092</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>149410</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>99610</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>53617; 86118</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>70241; 111872</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>48894; 82576</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>40235; 68593</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>47358; 78880</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>25414; 48927</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100811; 146599</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>126026; 177936</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>80045; 122383</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>